--- a/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
+++ b/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joche\Documents\Maritieme Techniek\Student-assistent\1e integratie-project 2023\Nakijken\NakijkmodelV5\Overig\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4283FAFD-AEB4-49DD-BDF2-9B5472DE298C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="73">
   <si>
     <t xml:space="preserve">Eenheid </t>
   </si>
@@ -167,9 +167,6 @@
     <t>MidshipLength</t>
   </si>
   <si>
-    <t>##</t>
-  </si>
-  <si>
     <t>Leegscheepsgewicht conditie</t>
   </si>
   <si>
@@ -212,12 +209,6 @@
     <t>Let goed op de conditie waarvan de gegevens moeten worden ingevuld, dit staat telkens bovenaan een blokje aangegeven</t>
   </si>
   <si>
-    <t>MT##_Versie_voorlopig.3dm</t>
-  </si>
-  <si>
-    <t>MT##_Versie_voorlopig.gh</t>
-  </si>
-  <si>
     <t>Algemeen</t>
   </si>
   <si>
@@ -258,6 +249,12 @@
   </si>
   <si>
     <t>Alle longitudonale afstanden (lengtes) worden gerekend in het coördinatenstelsel van Rhino. Dat is dus NIET de afstand t.o.v. de spiegel.</t>
+  </si>
+  <si>
+    <t>MT26_Versie the1(J-series 1.7).3dm</t>
+  </si>
+  <si>
+    <t>MT26_Versie the1(J-series 1.7).gh</t>
   </si>
 </sst>
 </file>
@@ -364,7 +361,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -396,9 +393,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -725,7 +719,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>17</v>
@@ -755,8 +749,8 @@
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>43</v>
+      <c r="B2" s="5">
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
@@ -767,7 +761,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
@@ -778,7 +772,7 @@
         <v>20</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
@@ -789,19 +783,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>14</v>
@@ -811,14 +805,18 @@
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6">
+        <v>1025</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="5">
+        <v>6</v>
+      </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
@@ -827,14 +825,18 @@
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6">
+        <v>7850</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
@@ -843,14 +845,18 @@
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="11">
+        <v>170</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
       <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
@@ -859,14 +865,18 @@
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="12"/>
+      <c r="B10" s="12">
+        <v>39.398000000000003</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5">
+        <v>13384.041999999999</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>32</v>
       </c>
@@ -875,14 +885,18 @@
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="12"/>
+      <c r="B11" s="12">
+        <v>78.415999999999997</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>61</v>
+      </c>
+      <c r="G11" s="5">
+        <v>54.284138291802599</v>
+      </c>
       <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
@@ -891,14 +905,16 @@
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="5">
+        <v>20.3534642857142</v>
+      </c>
       <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>16</v>
@@ -907,9 +923,11 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="5"/>
+        <v>50</v>
+      </c>
+      <c r="G13" s="5">
+        <v>1.7677371641938999</v>
+      </c>
       <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
@@ -918,14 +936,18 @@
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="12">
+        <v>12</v>
+      </c>
       <c r="C14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="G14" s="5">
+        <v>567203.41315042297</v>
+      </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
@@ -934,14 +956,18 @@
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="6">
+        <v>201537266.89172399</v>
+      </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5">
+        <v>-25</v>
+      </c>
       <c r="H15" s="3" t="s">
         <v>6</v>
       </c>
@@ -950,9 +976,8 @@
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="13">
-        <f>B17*B18*B19</f>
-        <v>0</v>
+      <c r="B16" s="8">
+        <v>205</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -962,30 +987,38 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8"/>
+      <c r="B17" s="8">
+        <v>2.5625</v>
+      </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="6"/>
+        <v>55</v>
+      </c>
+      <c r="G17" s="6">
+        <v>98.2960152536008</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="8"/>
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
       <c r="C18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="6">
+        <v>617.81700000000001</v>
+      </c>
       <c r="H18" s="3" t="s">
         <v>32</v>
       </c>
@@ -994,30 +1027,38 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="8"/>
+      <c r="B19" s="8">
+        <v>5</v>
+      </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G19" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="G19" s="10">
+        <v>6106447.6700572902</v>
+      </c>
       <c r="H19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B20" s="8"/>
+        <v>61</v>
+      </c>
+      <c r="B20" s="8">
+        <v>154.45797049249001</v>
+      </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="6"/>
+      <c r="G20" s="6">
+        <v>6.0265286951982704</v>
+      </c>
       <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
@@ -1026,14 +1067,18 @@
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8"/>
+      <c r="B21" s="8">
+        <v>22.317437499999901</v>
+      </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6">
+        <v>130.03899999999999</v>
+      </c>
       <c r="H21" s="3" t="s">
         <v>28</v>
       </c>
@@ -1043,15 +1088,17 @@
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="6"/>
+      <c r="B23" s="6">
+        <v>4753.5600000000004</v>
+      </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G23" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="H23" s="4" t="s">
         <v>0</v>
@@ -1059,16 +1106,20 @@
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="10"/>
+        <v>63</v>
+      </c>
+      <c r="B24" s="10">
+        <v>48353379.880018502</v>
+      </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6">
+        <v>3.8</v>
+      </c>
       <c r="H24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1077,39 +1128,49 @@
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6"/>
+      <c r="B25" s="6">
+        <v>13.343999999999999</v>
+      </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="10"/>
+      <c r="G25" s="10">
+        <v>6617.0303134158403</v>
+      </c>
       <c r="H25" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="6"/>
+        <v>64</v>
+      </c>
+      <c r="B26" s="6">
+        <v>133.80500000000001</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F26" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="5">
+        <v>67955846.341536507</v>
+      </c>
       <c r="H26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F27" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="G27" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="G27" s="6">
+        <v>62.698999999999998</v>
+      </c>
       <c r="H27" s="3" t="s">
         <v>28</v>
       </c>
@@ -1118,14 +1179,18 @@
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="6"/>
+      <c r="B28" s="6">
+        <v>18.862227312732099</v>
+      </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0.362280657673547</v>
+      </c>
       <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1134,62 +1199,78 @@
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="6"/>
+      <c r="B29" s="6">
+        <v>59.6001532709938</v>
+      </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G29" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="G29" s="6">
+        <v>11.263</v>
+      </c>
       <c r="H29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="B30" s="6">
+        <v>0.152054643399717</v>
+      </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="6"/>
+        <v>47</v>
+      </c>
+      <c r="G30" s="6">
+        <v>2.323</v>
+      </c>
       <c r="H30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B31" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="B31" s="6">
+        <v>5378065074.2431202</v>
+      </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G31" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="G31" s="6">
+        <v>25.260687813550799</v>
+      </c>
       <c r="H31" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="6"/>
+        <v>67</v>
+      </c>
+      <c r="B32" s="6">
+        <v>71.849999999999994</v>
+      </c>
       <c r="C32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G32" s="10"/>
+        <v>49</v>
+      </c>
+      <c r="G32" s="10">
+        <v>335.52815913486199</v>
+      </c>
       <c r="H32" s="3" t="s">
         <v>28</v>
       </c>
@@ -1198,39 +1279,49 @@
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="6"/>
+      <c r="B33" s="6">
+        <v>66</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G33" s="6"/>
+        <v>50</v>
+      </c>
+      <c r="G33" s="6">
+        <v>16.320687813550801</v>
+      </c>
       <c r="H33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B34" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="B34" s="6">
+        <v>0.177177289754999</v>
+      </c>
       <c r="C34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G34" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="G34" s="6">
+        <v>326.588159134862</v>
+      </c>
       <c r="H34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="B35" s="6">
+        <v>84.05</v>
+      </c>
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
@@ -1247,17 +1338,17 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
+++ b/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4283FAFD-AEB4-49DD-BDF2-9B5472DE298C}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230C11FD-4D18-4AE5-88DC-A7B845BD0A3B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -417,6 +417,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -718,23 +722,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
@@ -745,7 +749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -756,7 +760,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -767,7 +771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -778,10 +782,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -801,7 +805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -821,7 +825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -841,7 +845,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -861,7 +865,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -881,7 +885,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -901,7 +905,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>35</v>
       </c>
@@ -912,7 +916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -932,7 +936,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -952,7 +956,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -972,7 +976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -983,7 +987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -997,13 +1001,13 @@
         <v>55</v>
       </c>
       <c r="G17" s="6">
-        <v>98.2960152536008</v>
+        <v>44</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1023,7 +1027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>61</v>
       </c>
@@ -1063,7 +1067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1083,8 +1087,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1104,7 +1108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1124,7 +1128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1148,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -1164,7 +1168,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
@@ -1175,7 +1179,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -1255,7 +1259,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
@@ -1295,7 +1299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
@@ -1326,27 +1330,27 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>

--- a/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
+++ b/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{230C11FD-4D18-4AE5-88DC-A7B845BD0A3B}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85665EA2-2CB2-47CC-A864-F8079C96E21E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -720,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -736,6 +736,7 @@
     <col min="6" max="6" width="34.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -987,7 +988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1007,7 +1008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1027,7 +1028,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>61</v>
       </c>
@@ -1066,8 +1067,12 @@
       <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K20">
+        <f>B15+B16*30000*9.81+B24+G26</f>
+        <v>378177993.11327899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1087,8 +1092,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1108,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
@@ -1127,8 +1132,12 @@
       <c r="H24" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f>(B15+B16*30000*9.81+B24+G26)/(B7*9.81)</f>
+        <v>37610.004039012354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1147,8 +1156,12 @@
       <c r="H25" s="3" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <f>K24-38768.655</f>
+        <v>-1158.6509609876448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -1167,8 +1180,12 @@
       <c r="H26" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <f>K25/K24*-100</f>
+        <v>3.0806988475347987</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
@@ -1179,7 +1196,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1199,7 +1216,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
@@ -1219,7 +1236,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
@@ -1239,7 +1256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
@@ -1259,7 +1276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>

--- a/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
+++ b/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85665EA2-2CB2-47CC-A864-F8079C96E21E}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383EF198-9FAD-4EFB-AB0F-A5EA56943FBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="2" r:id="rId1"/>
@@ -261,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -293,6 +293,12 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -373,28 +379,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -417,10 +423,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -720,26 +722,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="4.42578125" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" customWidth="1"/>
-    <col min="6" max="6" width="34.7109375" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="1" max="1" width="50.5546875" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="4.44140625" customWidth="1"/>
+    <col min="5" max="5" width="4.6640625" customWidth="1"/>
+    <col min="6" max="6" width="34.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.88671875" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
@@ -750,50 +752,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="12">
         <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>71</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -806,11 +808,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="9">
         <v>1025</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -819,18 +821,18 @@
       <c r="F7" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5">
-        <v>6</v>
+      <c r="G7" s="12">
+        <v>6.5</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="9">
         <v>7850</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -839,14 +841,14 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5">
+      <c r="G8" s="12">
         <v>0</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -859,18 +861,18 @@
       <c r="F9" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="12">
         <v>0</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="8">
         <v>39.398000000000003</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -879,45 +881,45 @@
       <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="5">
-        <v>13384.041999999999</v>
+      <c r="G10" s="12">
+        <v>15132.787</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="8">
         <v>78.415999999999997</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="5">
-        <v>54.284138291802599</v>
+      <c r="G11" s="12">
+        <v>52.3653713513634</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="5">
-        <v>20.3534642857142</v>
+      <c r="G12" s="12">
+        <v>20.683821428571399</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -930,18 +932,18 @@
       <c r="F13" t="s">
         <v>50</v>
       </c>
-      <c r="G13" s="5">
-        <v>1.7677371641938999</v>
+      <c r="G13" s="12">
+        <v>6.5178219006151403</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="8">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -950,19 +952,19 @@
       <c r="F14" t="s">
         <v>52</v>
       </c>
-      <c r="G14" s="5">
-        <v>567203.41315042297</v>
+      <c r="G14" s="12">
+        <v>599766.93225628405</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B15" s="6">
-        <v>201537266.89172399</v>
+      <c r="B15" s="9">
+        <v>186822266.89172399</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -970,30 +972,30 @@
       <c r="F15" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="12">
         <v>-25</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="8">
-        <v>205</v>
+      <c r="B16" s="10">
+        <v>255</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="8">
-        <v>2.5625</v>
+      <c r="B17" s="10">
+        <v>2.65625</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -1001,18 +1003,18 @@
       <c r="F17" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="6">
-        <v>44</v>
+      <c r="G17" s="9">
+        <v>50</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="10">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -1021,19 +1023,20 @@
       <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="6">
-        <v>617.81700000000001</v>
+      <c r="G18" s="9">
+        <f>G19/(B7*9.81)</f>
+        <v>890.27776474076632</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="8">
-        <v>5</v>
+      <c r="B19" s="10">
+        <v>6</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>6</v>
@@ -1041,19 +1044,19 @@
       <c r="F19" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="G19" s="10">
-        <v>6106447.6700572902</v>
+      <c r="G19" s="13">
+        <v>8951965.4939095899</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="8">
-        <v>154.45797049249001</v>
+      <c r="B20" s="10">
+        <v>151.74073755099499</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1061,23 +1064,19 @@
       <c r="F20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G20" s="6">
-        <v>6.0265286951982704</v>
+      <c r="G20" s="9">
+        <v>7.0649640629252</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K20">
-        <f>B15+B16*30000*9.81+B24+G26</f>
-        <v>378177993.11327899</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
-      <c r="B21" s="8">
-        <v>22.317437499999901</v>
+      <c r="B21" s="10">
+        <v>22.438843749999901</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -1085,25 +1084,26 @@
       <c r="F21" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G21" s="6">
-        <v>130.03899999999999</v>
+      <c r="G21" s="9">
+        <v>130.56299999999999</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="6">
-        <v>4753.5600000000004</v>
+      <c r="B23" s="9">
+        <f>B24/(B7*9.81)</f>
+        <v>4808.7695363137173</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="6" t="s">
         <v>43</v>
       </c>
       <c r="G23" s="4" t="s">
@@ -1113,11 +1113,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="13">
         <v>48353379.880018502</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1126,22 +1126,18 @@
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="9">
         <v>3.8</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="K24">
-        <f>(B15+B16*30000*9.81+B24+G26)/(B7*9.81)</f>
-        <v>37610.004039012354</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="9">
         <v>13.343999999999999</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -1150,22 +1146,18 @@
       <c r="F25" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="13">
         <v>6617.0303134158403</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K25">
-        <f>K24-38768.655</f>
-        <v>-1158.6509609876448</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="9">
         <v>133.80500000000001</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -1174,34 +1166,30 @@
       <c r="F26" t="s">
         <v>23</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="12">
         <v>67955846.341536507</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26">
-        <f>K25/K24*-100</f>
-        <v>3.0806988475347987</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="9">
         <v>62.698999999999998</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="6">
-        <v>18.862227312732099</v>
+      <c r="B28" s="9">
+        <v>18.910453796345902</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
@@ -1209,18 +1197,18 @@
       <c r="F28" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="9">
         <v>0.362280657673547</v>
       </c>
       <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="9">
         <v>59.6001532709938</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -1229,19 +1217,19 @@
       <c r="F29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="9">
         <v>11.263</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B30" s="6">
-        <v>0.152054643399717</v>
+      <c r="B30" s="9">
+        <v>0.103828159785871</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
@@ -1249,19 +1237,19 @@
       <c r="F30" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G30" s="6">
+      <c r="G30" s="9">
         <v>2.323</v>
       </c>
       <c r="H30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B31" s="6">
-        <v>5378065074.2431202</v>
+      <c r="B31" s="9">
+        <v>4569788039.31248</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
@@ -1269,19 +1257,19 @@
       <c r="F31" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="6">
+      <c r="G31" s="9">
         <v>25.260687813550799</v>
       </c>
       <c r="H31" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="6">
-        <v>71.849999999999994</v>
+      <c r="B32" s="9">
+        <v>67.3</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>28</v>
@@ -1289,18 +1277,18 @@
       <c r="F32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="13">
         <v>335.52815913486199</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="9">
         <v>66</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -1309,19 +1297,19 @@
       <c r="F33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G33" s="6">
+      <c r="G33" s="9">
         <v>16.320687813550801</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="6">
-        <v>0.177177289754999</v>
+      <c r="B34" s="9">
+        <v>0.102390587654218</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>28</v>
@@ -1329,45 +1317,45 @@
       <c r="F34" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="9">
         <v>326.588159134862</v>
       </c>
       <c r="H34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="6">
-        <v>84.05</v>
+      <c r="B35" s="9">
+        <v>71.95</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>

--- a/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
+++ b/Inleveren herkansing/MT26_Antwoordenblad_Versie the1(J-series 1.7).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tud365-my.sharepoint.com/personal/bjtvannuland_tudelft_nl/Documents/Bachelor MT jaar 1/Q4/Integratieproject 1/IP-26/Inleveren herkansing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomol\.spyder-py3\MT-1\IP\Inleveren herkansing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="13_ncr:1_{0EB325A3-B6A0-4913-9393-D769D66389AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{383EF198-9FAD-4EFB-AB0F-A5EA56943FBF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0B6904-9028-48EB-900E-4A9308BC4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="2" r:id="rId1"/>
@@ -404,8 +404,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Invoer" xfId="1" builtinId="20"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -426,7 +426,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -724,24 +724,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.5546875" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="4.44140625" customWidth="1"/>
-    <col min="5" max="5" width="4.6640625" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.88671875" customWidth="1"/>
+    <col min="1" max="1" width="50.5703125" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="4.42578125" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="6" max="6" width="34.7109375" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>53</v>
       </c>
@@ -752,7 +752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -763,7 +763,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -774,7 +774,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -785,10 +785,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>57</v>
       </c>
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -828,7 +828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>33</v>
       </c>
@@ -848,7 +848,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -868,7 +868,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>40</v>
       </c>
@@ -888,7 +888,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>42</v>
       </c>
@@ -902,24 +902,24 @@
         <v>61</v>
       </c>
       <c r="G11" s="12">
-        <v>52.3653713513634</v>
+        <v>56.3794200628193</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="12">
-        <v>20.683821428571399</v>
+        <v>20.730071428571399</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>62</v>
       </c>
@@ -933,13 +933,13 @@
         <v>50</v>
       </c>
       <c r="G13" s="12">
-        <v>6.5178219006151403</v>
+        <v>6.4283769447626602</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -959,12 +959,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="9">
-        <v>186822266.89172399</v>
+        <v>189552004.05814299</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>27</v>
@@ -979,23 +979,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="10">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
       <c r="B17" s="10">
-        <v>2.65625</v>
+        <v>2.7291666666666599</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>6</v>
@@ -1004,13 +1004,13 @@
         <v>55</v>
       </c>
       <c r="G17" s="9">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1025,13 +1025,13 @@
       </c>
       <c r="G18" s="9">
         <f>G19/(B7*9.81)</f>
-        <v>890.27776474076632</v>
+        <v>480.60440986454739</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -1045,18 +1045,18 @@
         <v>63</v>
       </c>
       <c r="G19" s="13">
-        <v>8951965.4939095899</v>
+        <v>4832597.4922904903</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B20" s="10">
-        <v>151.74073755099499</v>
+        <v>151.32242202480501</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>28</v>
@@ -1065,18 +1065,18 @@
         <v>26</v>
       </c>
       <c r="G20" s="9">
-        <v>7.0649640629252</v>
+        <v>5.6366272185404602</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="10">
-        <v>22.438843749999901</v>
+        <v>22.533270833333301</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -1085,20 +1085,20 @@
         <v>36</v>
       </c>
       <c r="G21" s="9">
-        <v>130.56299999999999</v>
+        <v>129.65</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="9">
-        <f>B24/(B7*9.81)</f>
-        <v>4808.7695363137173</v>
+        <f>B24/9.81/1025</f>
+        <v>4797.7171335784287</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>32</v>
@@ -1113,12 +1113,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B24" s="13">
-        <v>48353379.880018502</v>
+        <v>48242245.2074145</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>27</v>
@@ -1133,7 +1133,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>64</v>
       </c>
@@ -1167,13 +1167,13 @@
         <v>23</v>
       </c>
       <c r="G26" s="12">
-        <v>67955846.341536507</v>
+        <v>70015114.412492201</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F27" s="2" t="s">
         <v>65</v>
       </c>
@@ -1184,12 +1184,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B28" s="9">
-        <v>18.910453796345902</v>
+        <v>18.844491362596699</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
@@ -1204,12 +1204,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B29" s="9">
-        <v>59.6001532709938</v>
+        <v>59.616460758909</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
@@ -1224,12 +1224,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B30" s="9">
-        <v>0.103828159785871</v>
+        <v>0.169790593535106</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
@@ -1244,12 +1244,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B31" s="9">
-        <v>4569788039.31248</v>
+        <v>6291916327.9781199</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>29</v>
@@ -1264,12 +1264,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B32" s="9">
-        <v>67.3</v>
+        <v>66.489000000000004</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>28</v>
@@ -1284,12 +1284,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B33" s="9">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>30</v>
@@ -1304,12 +1304,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="9">
-        <v>0.102390587654218</v>
+        <v>0.226768475873588</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>28</v>
@@ -1324,38 +1324,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="9">
-        <v>71.95</v>
+        <v>78.888999999999996</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>56</v>
       </c>
